--- a/tests/outputs/rowcolspan.xlsx
+++ b/tests/outputs/rowcolspan.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,7 +52,6 @@
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -119,23 +118,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,14 +503,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.995714285714286"/>
-    <col customWidth="1" max="2" min="2" width="2.995714285714286"/>
-    <col customWidth="1" max="3" min="3" width="2.995714285714286"/>
-    <col customWidth="1" max="4" min="4" width="2.995714285714286"/>
-    <col customWidth="1" max="5" min="5" width="2.995714285714286"/>
+    <col width="2.995714285714286" customWidth="1" min="1" max="1"/>
+    <col width="2.995714285714286" customWidth="1" min="2" max="2"/>
+    <col width="2.995714285714286" customWidth="1" min="3" max="3"/>
+    <col width="2.995714285714286" customWidth="1" min="4" max="4"/>
+    <col width="2.995714285714286" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.5" r="1">
+    <row r="1" ht="15.5" customHeight="1">
       <c r="A1" s="1" t="n">
         <v>5</v>
       </c>
@@ -458,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="2">
+    <row r="2" ht="15.5" customHeight="1">
       <c r="A2" s="1" t="n">
         <v>15</v>
       </c>
@@ -475,7 +542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="3">
+    <row r="3" ht="15.5" customHeight="1">
       <c r="A3" s="1" t="n">
         <v>25</v>
       </c>
@@ -490,7 +557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="4">
+    <row r="4" ht="15.5" customHeight="1">
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="1" t="n">
         <v>36</v>
@@ -501,7 +568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="5">
+    <row r="5" ht="15.5" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>45</v>
       </c>
@@ -518,7 +585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="6">
+    <row r="6" ht="15.5" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>55</v>
       </c>
@@ -535,7 +602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="7">
+    <row r="7" ht="15.5" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>65</v>
       </c>
@@ -552,7 +619,7 @@
         <v>69</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="8">
+    <row r="8" ht="15.5" customHeight="1">
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="1" t="n">
         <v>76</v>
@@ -565,7 +632,7 @@
         <v>79</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="9">
+    <row r="9" ht="15.5" customHeight="1">
       <c r="A9" s="1" t="n">
         <v>85</v>
       </c>
@@ -578,7 +645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="10">
+    <row r="10" ht="15.5" customHeight="1">
       <c r="A10" s="1" t="n">
         <v>95</v>
       </c>
@@ -603,6 +670,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C8:D9"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>